--- a/Lecture_Notes/sample_template_napoleon_tidy_data.xlsx
+++ b/Lecture_Notes/sample_template_napoleon_tidy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skiss/OneDrive - Wilfrid Laurier University/Courses/DMJN328/Lecture_Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FD569E-2B43-2F4A-9A6C-CB5D285B4212}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{C3FD569E-2B43-2F4A-9A6C-CB5D285B4212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9679F2A-A861-CB4C-AA1D-2D5455DB3C43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{6D15EF9D-7D1B-AF4D-A61E-B38085EC8400}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="16480" xr2:uid="{6D15EF9D-7D1B-AF4D-A61E-B38085EC8400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>August 1, 1812</t>
-  </si>
-  <si>
-    <t>August 2, 1812</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -54,6 +48,18 @@
   </si>
   <si>
     <t>direction</t>
+  </si>
+  <si>
+    <t>1812-08-1</t>
+  </si>
+  <si>
+    <t>1812-08-02</t>
+  </si>
+  <si>
+    <t>1812-08-03</t>
+  </si>
+  <si>
+    <t>Attack</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BBEE42-735E-5E4C-9D2C-1A4A36F58D65}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,29 +424,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>400000</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>65.5</v>
+      </c>
+      <c r="D3">
+        <v>399999</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>65.7</v>
+      </c>
+      <c r="D4">
+        <v>399998</v>
+      </c>
+      <c r="E4">
+        <v>21.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
